--- a/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>metadata_content</t>
   </si>
@@ -407,19 +407,6 @@
   </si>
   <si>
     <t>Ablation HOSP_SPEC_DISP </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Days from cohort entry to start of follow up, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>median  [IQR] </t>
-    </r>
   </si>
   <si>
     <t>BIFAP_PC_HOSP
@@ -502,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -682,39 +669,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,7 +733,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,25 +754,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1183,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1251,7 +1204,7 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1631,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1677,7 +1630,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -1685,19 +1638,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="25"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" thickBot="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="21" t="s">
         <v>99</v>
       </c>
@@ -1709,7 +1662,7 @@
       <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1717,25 +1670,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -1743,25 +1696,25 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1769,65 +1722,65 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -1835,54 +1788,27 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1">
-      <c r="A30" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>

--- a/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
     <t>metadata_content</t>
   </si>
@@ -141,42 +141,9 @@
     <t>notes</t>
   </si>
   <si>
-    <t>n_1_</t>
-  </si>
-  <si>
     <t>ds</t>
   </si>
   <si>
-    <t>n_2_</t>
-  </si>
-  <si>
-    <t>p_2_</t>
-  </si>
-  <si>
-    <t>n_3_</t>
-  </si>
-  <si>
-    <t>p_3</t>
-  </si>
-  <si>
-    <t>n_4_</t>
-  </si>
-  <si>
-    <t>p_4_</t>
-  </si>
-  <si>
-    <t>n_8_</t>
-  </si>
-  <si>
-    <t>p_8_</t>
-  </si>
-  <si>
-    <t>n_9_</t>
-  </si>
-  <si>
-    <t>p_9_</t>
-  </si>
-  <si>
     <t>data source name, as stored in CDM_SOURCE, plus possible specification of subpopulation</t>
   </si>
   <si>
@@ -216,66 +183,6 @@
     <t>datasource</t>
   </si>
   <si>
-    <t>py_12</t>
-  </si>
-  <si>
-    <t>pc_5_</t>
-  </si>
-  <si>
-    <t>pc_6_</t>
-  </si>
-  <si>
-    <t>pc_7_</t>
-  </si>
-  <si>
-    <t>n_10_</t>
-  </si>
-  <si>
-    <t>p_10_</t>
-  </si>
-  <si>
-    <t>n_11_</t>
-  </si>
-  <si>
-    <t>p_11_</t>
-  </si>
-  <si>
-    <t>pc_13</t>
-  </si>
-  <si>
-    <t>pc_13_2</t>
-  </si>
-  <si>
-    <t>pc_13_3</t>
-  </si>
-  <si>
-    <t>n_14</t>
-  </si>
-  <si>
-    <t>p_14</t>
-  </si>
-  <si>
-    <t>n_15</t>
-  </si>
-  <si>
-    <t>p_15</t>
-  </si>
-  <si>
-    <t>n_16</t>
-  </si>
-  <si>
-    <t>p_16</t>
-  </si>
-  <si>
-    <t>n_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_17 </t>
-  </si>
-  <si>
-    <t>n_18</t>
-  </si>
-  <si>
     <t>ImmDis</t>
   </si>
   <si>
@@ -307,9 +214,6 @@
   </si>
   <si>
     <t>D_HEPATITISAUTOIMMUNE_AESI</t>
-  </si>
-  <si>
-    <t>p_18</t>
   </si>
   <si>
     <t>D5_Table_8_Impact_of_ablation_cohort_{ImmDis}</t>
@@ -331,15 +235,6 @@
     <t>Main </t>
   </si>
   <si>
-    <t>Ablation PC, n (%) </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_DISP, n (%) </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_SPEC_DISP, n (%) </t>
-  </si>
-  <si>
     <t>Subjects excluded by cause: </t>
   </si>
   <si>
@@ -356,15 +251,6 @@
     </r>
   </si>
   <si>
-    <t>Ablation HOSP_PC, n </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_DISP, n </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_SPEC_DISP, n </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">≥1 exclusion criterion during look-back, </t>
     </r>
@@ -400,15 +286,6 @@
     <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), median [IQR] </t>
   </si>
   <si>
-    <t>Ablation HOSP_PC </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_DISP </t>
-  </si>
-  <si>
-    <t>Ablation HOSP_SPEC_DISP </t>
-  </si>
-  <si>
     <t>BIFAP_PC_HOSP
 SIDIAP
 VID
@@ -422,6 +299,183 @@
   </si>
   <si>
     <t>Impact of using selected prompts on number of participants persons and delay of entrance in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>≥1 disease diagnosis during look-back, Main, n</t>
+  </si>
+  <si>
+    <t>Subjects with ≥1 disease diagnosis during study period, Main, n </t>
+  </si>
+  <si>
+    <t>Ablation leaving PC, n (%) </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_DISP, n (%) </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_SPEC_DISP, n (%) </t>
+  </si>
+  <si>
+    <t>Ablation leaving PC, n</t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_DISP, n</t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_SPEC_DISP, n</t>
+  </si>
+  <si>
+    <t>Ablation leaving PC, n </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_DISP, n </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_SPEC_DISP, n </t>
+  </si>
+  <si>
+    <t>Ablation leaving PC </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_DISP </t>
+  </si>
+  <si>
+    <t>Ablation leaving HOSP_SPEC_DISP </t>
+  </si>
+  <si>
+    <t>Subjects included in the study cohort, Main, n </t>
+  </si>
+  <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t>n_2</t>
+  </si>
+  <si>
+    <t>group_of_prompts</t>
+  </si>
+  <si>
+    <t>groups_of_prompts</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>HOSP_DISP</t>
+  </si>
+  <si>
+    <t>HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>n_1_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p_1_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>Subjects with ≥1 disease diagnosis during study period, Ablation leaving {group_of_prompts}, n (%) </t>
+  </si>
+  <si>
+    <t>n_2_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>≥1 disease diagnosis during look-back, Ablation leaving {group_of_prompts}, n</t>
+  </si>
+  <si>
+    <t>Subjects included in the study cohort, Ablation leaving {group_of_prompts}, n </t>
+  </si>
+  <si>
+    <t>Subjects in both main and {group_of_prompts}, n (%) </t>
+  </si>
+  <si>
+    <t>n_3</t>
+  </si>
+  <si>
+    <t>n_3_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>Subjects included in the study cohort, only in main and not in {group_of_prompts}, n (%) </t>
+  </si>
+  <si>
+    <t>previous n as a % of n_1</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), median in the main analysis</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), 1st quartile in the main analysis</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), 3rd quartile in the main analysis</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), 1st quartile in the ablation analysis leaving {group_of_prompts}</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), 3rd quartile in the ablation analysis leaving {group_of_prompts}</t>
+  </si>
+  <si>
+    <t>Days from start of study period (1/1/2017) and first disease diagnosis (cohort entry), median in the ablation analysis leaving {group_of_prompts}</t>
+  </si>
+  <si>
+    <t>Additional exclusion criterion, Main, n</t>
+  </si>
+  <si>
+    <t>n_4</t>
+  </si>
+  <si>
+    <t>n_4_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>n_4_both_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p_4_both_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>previous n as a % of n_4</t>
+  </si>
+  <si>
+    <t>n_4_main_not_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p_4_main_not_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>median_time_to_entry_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p25_time_to_entry_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p75_time_to_entry_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>median_time_to_entry_main</t>
+  </si>
+  <si>
+    <t>p25_time_to_entry_main</t>
+  </si>
+  <si>
+    <t>p75_time_to_entry_main</t>
+  </si>
+  <si>
+    <t>median_delay_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p25_delay_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>p75_delay_{group_of_prompts}</t>
+  </si>
+  <si>
+    <t>difference between cohort entry date in the main cohort and in the ablation analysis leaving {group_of_prompts}, median</t>
+  </si>
+  <si>
+    <t>difference between cohort entry date in the main cohort and in the ablation analysis leaving {group_of_prompts}, 1st quartile</t>
+  </si>
+  <si>
+    <t>difference between cohort entry date in the main cohort and in the ablation analysis leaving {group_of_prompts}, 3rd quartile</t>
   </si>
 </sst>
 </file>
@@ -489,18 +543,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF595959"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -560,26 +605,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -673,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -686,13 +711,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,56 +730,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="86.4">
@@ -1070,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1078,7 +1097,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1107,7 +1126,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1115,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1123,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1134,18 +1153,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="27" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="9" customWidth="1"/>
@@ -1197,14 +1216,14 @@
     </row>
     <row r="2" spans="1:12" ht="144">
       <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1217,182 +1236,208 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="26.4">
       <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="26.4">
       <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="26.4">
       <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:12">
+        <v>114</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" ht="26.4">
       <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="26.4">
       <c r="A12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="18"/>
+        <v>120</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:12">
+        <v>117</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.8">
       <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
       <c r="A17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8">
       <c r="A18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
       <c r="A19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2">
       <c r="A20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2">
       <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
       <c r="A22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
       <c r="A23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="20"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
-        <v>93</v>
+        <v>129</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1403,15 +1448,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -1439,142 +1484,175 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1584,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A29"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1630,183 +1708,202 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>96</v>
+      <c r="A2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="21" t="s">
-        <v>98</v>
+      <c r="A3" s="27"/>
+      <c r="B3" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
-        <v>99</v>
+      <c r="A5" s="28"/>
+      <c r="B5" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="21"/>
+      <c r="A6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>96</v>
+      <c r="A7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="21" t="s">
-        <v>102</v>
+      <c r="A8" s="27"/>
+      <c r="B8" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="21" t="s">
-        <v>104</v>
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" thickBot="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>96</v>
+      <c r="A11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="21" t="s">
-        <v>102</v>
+      <c r="A12" s="27"/>
+      <c r="B12" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="21" t="s">
-        <v>104</v>
+      <c r="A13" s="27"/>
+      <c r="B13" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" thickBot="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>96</v>
+      <c r="A15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="21" t="s">
-        <v>102</v>
+      <c r="A16" s="27"/>
+      <c r="B16" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="21" t="s">
-        <v>107</v>
+      <c r="A17" s="27"/>
+      <c r="B17" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="21" t="s">
-        <v>108</v>
+      <c r="A18" s="27"/>
+      <c r="B18" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="23" t="s">
-        <v>103</v>
+      <c r="A19" s="27"/>
+      <c r="B19" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="21" t="s">
-        <v>107</v>
+      <c r="A21" s="27"/>
+      <c r="B21" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="21" t="s">
-        <v>104</v>
+      <c r="A22" s="27"/>
+      <c r="B22" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" thickBot="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="21" t="s">
-        <v>107</v>
+      <c r="A24" s="27"/>
+      <c r="B24" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21" t="s">
-        <v>108</v>
+      <c r="A25" s="28"/>
+      <c r="B25" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1">
-      <c r="A26" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>96</v>
+      <c r="A26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="21" t="s">
-        <v>110</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="21" t="s">
-        <v>112</v>
+      <c r="A28" s="24"/>
+      <c r="B28" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" thickBot="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" thickBot="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A5"/>

--- a/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_8_Impact_of_ablation_cohort_ImmDis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02129D97-9FF2-47EE-A230-54EA96F22672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>metadata_content</t>
   </si>
@@ -477,11 +478,14 @@
   <si>
     <t>difference between cohort entry date in the main cohort and in the ablation analysis leaving {group_of_prompts}, 3rd quartile</t>
   </si>
+  <si>
+    <t>empty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -752,6 +756,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -761,12 +771,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -778,7 +782,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1055,16 +1059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="86.4">
+    <row r="3" spans="1:2" ht="105">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1152,30 +1156,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="9"/>
+    <col min="9" max="9" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="144">
+    <row r="2" spans="1:12" ht="165">
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="26.4">
+    <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
@@ -1274,7 +1278,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:12" ht="26.4">
+    <row r="7" spans="1:12" ht="25.5">
       <c r="A7" s="9" t="s">
         <v>99</v>
       </c>
@@ -1294,7 +1298,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:12" ht="26.4">
+    <row r="9" spans="1:12" ht="25.5">
       <c r="A9" s="9" t="s">
         <v>104</v>
       </c>
@@ -1314,7 +1318,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="26.4">
+    <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="9" t="s">
         <v>115</v>
       </c>
@@ -1324,7 +1328,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:12" ht="26.4">
+    <row r="12" spans="1:12" ht="25.5">
       <c r="A12" s="9" t="s">
         <v>119</v>
       </c>
@@ -1364,7 +1368,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:12" ht="28.8">
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" ht="28.8">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -1384,7 +1388,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="43.2">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="9" t="s">
         <v>121</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2">
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" s="9" t="s">
         <v>122</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.2">
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="9" t="s">
         <v>123</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8">
+    <row r="23" spans="1:4" ht="45">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -1447,19 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1661,20 +1665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="115.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="115.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1">
       <c r="A1" s="13"/>
       <c r="C1" s="14" t="s">
         <v>1</v>
@@ -1707,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>63</v>
       </c>
@@ -1715,31 +1719,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="27"/>
       <c r="B3" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" thickBot="1">
+    <row r="4" spans="1:12" ht="26.25" thickBot="1">
       <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27" thickBot="1">
+    <row r="5" spans="1:12" ht="26.25" thickBot="1">
       <c r="A5" s="28"/>
       <c r="B5" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -1747,25 +1751,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27" thickBot="1">
+    <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
@@ -1773,25 +1777,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="27"/>
       <c r="B12" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="27"/>
       <c r="B13" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="27" thickBot="1">
+    <row r="14" spans="1:12" ht="26.25" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="26" t="s">
         <v>68</v>
       </c>
@@ -1799,19 +1803,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="27"/>
       <c r="B16" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="27"/>
       <c r="B17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" s="27"/>
       <c r="B18" s="16" t="s">
         <v>70</v>
@@ -1819,84 +1823,84 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="27"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
       <c r="A20" s="27"/>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
       <c r="A21" s="27"/>
       <c r="B21" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1">
+    <row r="23" spans="1:2" ht="26.25" thickBot="1">
       <c r="A23" s="27"/>
       <c r="B23" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
       <c r="A24" s="27"/>
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
       <c r="A25" s="28"/>
       <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A26" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A27" s="21"/>
       <c r="B27" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A28" s="21"/>
       <c r="B28" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27" thickBot="1">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1">
+      <c r="A29" s="22"/>
       <c r="B29" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A30" s="21"/>
       <c r="B30" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A31" s="21"/>
       <c r="B31" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="27" thickBot="1">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1">
+      <c r="A32" s="22"/>
       <c r="B32" s="16" t="s">
         <v>87</v>
       </c>
@@ -1917,17 +1921,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
